--- a/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.518063297992743</v>
+        <v>8.54216777179087</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.642693211350367</v>
+        <v>3.176900502840803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8471336861474835</v>
+        <v>-1.293833777894194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.292071855462391</v>
+        <v>-6.441063906892512</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.350163068820625</v>
+        <v>0.334729482451583</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1047349085182305</v>
+        <v>0.09377730835875343</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02484995938563906</v>
+        <v>-0.04124929964371194</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2554339648331392</v>
+        <v>-0.2775262370511914</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.88785155229387</v>
+        <v>19.53400247562898</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.21937439635232</v>
+        <v>15.91546197086328</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.51285886718134</v>
+        <v>11.90100985184182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.68275040687925</v>
+        <v>11.686552653481</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.00840884323501</v>
+        <v>1.009227028356468</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5708067823627115</v>
+        <v>0.5703332008116129</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.43541122961393</v>
+        <v>0.4435706631523464</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7553520099557285</v>
+        <v>0.7325043341300909</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>11.46643414254345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8046284775091256</v>
+        <v>0.8046284775091284</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5887948860246061</v>
@@ -749,7 +749,7 @@
         <v>0.4030642127146927</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.03838216342874648</v>
+        <v>0.03838216342874661</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11.23609790313221</v>
+        <v>10.74410419933771</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.463096426097981</v>
+        <v>2.994095502825922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.709816743267244</v>
+        <v>5.781942055741799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.892852101764168</v>
+        <v>-5.625443181899179</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3773574099049411</v>
+        <v>0.3523772104763301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08156683963788433</v>
+        <v>0.06911212688745383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1819902099875113</v>
+        <v>0.18241502661132</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2299373846806346</v>
+        <v>-0.2272445087144293</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>21.59927363617272</v>
+        <v>21.21814498711884</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.57487855655572</v>
+        <v>14.45096443504624</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.29802715114977</v>
+        <v>16.91112172269069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.483900525506339</v>
+        <v>6.795365223591306</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8495421153672188</v>
+        <v>0.8392745597800932</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4055815246454649</v>
+        <v>0.3975440551849455</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.643364786288998</v>
+        <v>0.6606054693419895</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4406662144876075</v>
+        <v>0.3911269003174745</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>14.36000937139856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.557988596790903</v>
+        <v>5.557988596790906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5311333447992536</v>
@@ -849,7 +849,7 @@
         <v>0.4308194013077802</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2803740650824552</v>
+        <v>0.2803740650824554</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>12.58215014693989</v>
+        <v>12.59773602526109</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.10823286877635</v>
+        <v>10.20416794168951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.124731350104135</v>
+        <v>9.102599510781694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.104404047297995</v>
+        <v>1.020563914738866</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3431640098880473</v>
+        <v>0.3406195328420668</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2314478845566039</v>
+        <v>0.2365963040475325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2508146440347339</v>
+        <v>0.2519358219769088</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.06046512686877459</v>
+        <v>0.04529085858046623</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.29306286754152</v>
+        <v>23.13593602124767</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.28982404449698</v>
+        <v>20.98387964369228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.90727673446678</v>
+        <v>18.92107062407408</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.22769570859895</v>
+        <v>9.937441682935248</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.761312762931766</v>
+        <v>0.7584205741259594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5649283267364358</v>
+        <v>0.5516735959904957</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6461454904789793</v>
+        <v>0.6153771196817693</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6093212492455081</v>
+        <v>0.5759607840058529</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.401010363245774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.769520418341633</v>
+        <v>5.76952041834164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3331699169973755</v>
@@ -949,7 +949,7 @@
         <v>0.1433210649532894</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1925945996457318</v>
+        <v>0.192594599645732</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.400310001485083</v>
+        <v>9.690763985235209</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.12922823107565</v>
+        <v>14.50107502203179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.602502515520969</v>
+        <v>1.331788148841801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.07187552629937</v>
+        <v>0.9172129035296526</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1796220500305986</v>
+        <v>0.1944189812607856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2809313655003616</v>
+        <v>0.2690457347614175</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03059802442682864</v>
+        <v>0.02383829477184574</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03283242760635426</v>
+        <v>0.02642763213773014</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.01826337555013</v>
+        <v>22.0676750660787</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>25.88412102664661</v>
+        <v>26.49800484796211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.99520403505397</v>
+        <v>12.58321296166431</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.718660932894638</v>
+        <v>10.03030127430334</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5009459847356955</v>
+        <v>0.5125914801581352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5470234317546372</v>
+        <v>0.5649860617512504</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2702530344310073</v>
+        <v>0.2607743174584331</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3542593301870848</v>
+        <v>0.3611966576828383</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>14.86129641327021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.767425105986646</v>
+        <v>6.767425105986663</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09221115926448124</v>
@@ -1049,7 +1049,7 @@
         <v>0.2325465464134584</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1580775749502535</v>
+        <v>0.1580775749502539</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.02343049531959226</v>
+        <v>0.4263065993085235</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.916402647274931</v>
+        <v>4.96956713737208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.528051919702746</v>
+        <v>8.35902640500038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.803982793426616</v>
+        <v>1.676691179267837</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.003743467223544147</v>
+        <v>0.006123303250136184</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06354283284155599</v>
+        <v>0.0638479244366584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1268584832647364</v>
+        <v>0.1278104437264591</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03940671117319158</v>
+        <v>0.03877258007052978</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.75846414987254</v>
+        <v>12.36233274876199</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.79445248548687</v>
+        <v>16.27625813152894</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.60323443218373</v>
+        <v>20.7340240256368</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.28565347845724</v>
+        <v>11.68004068823631</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1922941479582518</v>
+        <v>0.188045767241334</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2193155220733545</v>
+        <v>0.2300521737981193</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3438711153183787</v>
+        <v>0.3436033007830805</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2887054747681988</v>
+        <v>0.2978977637744987</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.393071873441321</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12.92443218823635</v>
+        <v>12.92443218823633</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1507302608503972</v>
@@ -1149,7 +1149,7 @@
         <v>0.01591681234624085</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2780215628304887</v>
+        <v>0.2780215628304885</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.434788071129012</v>
+        <v>5.949009793588894</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.095442755955442</v>
+        <v>-2.141171433840106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.380513980220297</v>
+        <v>-3.682000839099625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.751090603957161</v>
+        <v>7.59685899572084</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06781823457300401</v>
+        <v>0.07360855595896641</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02193673929742869</v>
+        <v>-0.02299783073985728</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03840058703236732</v>
+        <v>-0.04123220131493064</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1558633361925676</v>
+        <v>0.1515796266633515</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.47014126162495</v>
+        <v>18.3421517218549</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.895255398960051</v>
+        <v>5.79671509579727</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.199725869861657</v>
+        <v>6.44626405310686</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.02034925463145</v>
+        <v>18.64950392239861</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2408047564173783</v>
+        <v>0.2484560824842124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06587250861287697</v>
+        <v>0.06433567756230155</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07171798985209507</v>
+        <v>0.07616033316361802</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4185524730267121</v>
+        <v>0.4334949198886636</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.967214632222404</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.089111148590817</v>
+        <v>3.089111148590806</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0331207863160066</v>
@@ -1249,7 +1249,7 @@
         <v>0.03183948785261387</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.04895375669483123</v>
+        <v>0.04895375669483105</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.454462310809389</v>
+        <v>-2.150275450136079</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.311000448458812</v>
+        <v>-1.434715534351544</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6061728205693371</v>
+        <v>-0.7600684349502737</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.043818165600996</v>
+        <v>-2.662428868479194</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.0271212660628596</v>
+        <v>-0.02418327030965216</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.01315142119888477</v>
+        <v>-0.01451893902375131</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.006381356605591453</v>
+        <v>-0.007936394730373608</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.0457218017135886</v>
+        <v>-0.03901567946405252</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.32218049655607</v>
+        <v>8.92483539385333</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.38377247998529</v>
+        <v>5.470162171344038</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.240299999142207</v>
+        <v>6.328365522391158</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.585361158086505</v>
+        <v>8.531978018131605</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1112843857291444</v>
+        <v>0.1086054978776718</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05834442318521358</v>
+        <v>0.05929998374137702</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06878266890152553</v>
+        <v>0.07004969632598163</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1412002374302221</v>
+        <v>0.144198702517289</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>13.46445379462059</v>
+        <v>13.6837813320017</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>11.18907302204091</v>
+        <v>11.39630484189934</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9.261992349113331</v>
+        <v>9.302186905202555</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.592211743708297</v>
+        <v>4.520424285708833</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2936179084289411</v>
+        <v>0.3006474873760261</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2000225771130503</v>
+        <v>0.2064336908025747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1807255497212824</v>
+        <v>0.1830654428355244</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1350681203816502</v>
+        <v>0.1299290441853905</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>18.29924242484364</v>
+        <v>18.41748662015708</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>15.84617234237788</v>
+        <v>16.08727722840612</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.97681622259935</v>
+        <v>14.23057861597547</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.974142531028809</v>
+        <v>9.070693418200712</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4219897655543887</v>
+        <v>0.4315469519430391</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3006302142021493</v>
+        <v>0.3075003490870151</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.288426743371327</v>
+        <v>0.2914976555746263</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2855778269684687</v>
+        <v>0.2892482620368019</v>
       </c>
     </row>
     <row r="28">
